--- a/data/ap_fcv.xlsx
+++ b/data/ap_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7868662293672606</v>
+        <v>0.8280016295994373</v>
       </c>
       <c r="D2">
-        <v>0.7693174390519265</v>
+        <v>0.01314115558265945</v>
       </c>
       <c r="E2">
-        <v>0.7508825737652656</v>
+        <v>0.8045483589888736</v>
       </c>
       <c r="F2">
-        <v>0.7279644873008418</v>
+        <v>0.01021098054531338</v>
       </c>
       <c r="G2">
-        <v>0.7099195559905349</v>
+        <v>0.7841161825352569</v>
+      </c>
+      <c r="H2">
+        <v>0.02037080918991764</v>
+      </c>
+      <c r="I2">
+        <v>0.7581045343232958</v>
+      </c>
+      <c r="J2">
+        <v>0.03686210095178553</v>
+      </c>
+      <c r="K2">
+        <v>0.7332453788165456</v>
+      </c>
+      <c r="L2">
+        <v>0.02100574089317048</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.727465978599206</v>
+        <v>0.828083341928125</v>
       </c>
       <c r="D3">
-        <v>0.7114059762112573</v>
+        <v>0.01738954501765564</v>
       </c>
       <c r="E3">
-        <v>0.695720434474137</v>
+        <v>0.803975299753049</v>
       </c>
       <c r="F3">
-        <v>0.6810894551616975</v>
+        <v>0.01878365712207545</v>
       </c>
       <c r="G3">
-        <v>0.6724996242311776</v>
+        <v>0.7844136239200832</v>
+      </c>
+      <c r="H3">
+        <v>0.01662549635590544</v>
+      </c>
+      <c r="I3">
+        <v>0.7589713514487531</v>
+      </c>
+      <c r="J3">
+        <v>0.03626634152315474</v>
+      </c>
+      <c r="K3">
+        <v>0.7377752104952041</v>
+      </c>
+      <c r="L3">
+        <v>0.02606557454878471</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7984838108479003</v>
+        <v>0.811240568513268</v>
       </c>
       <c r="D4">
-        <v>0.8126164611493591</v>
+        <v>0.01786549846085677</v>
       </c>
       <c r="E4">
-        <v>0.7996886305648377</v>
+        <v>0.8063405954170133</v>
       </c>
       <c r="F4">
-        <v>0.7918821008370813</v>
+        <v>0.01820939297161448</v>
       </c>
       <c r="G4">
-        <v>0.7824493002045804</v>
+        <v>0.7959019063281368</v>
+      </c>
+      <c r="H4">
+        <v>0.01886414787937804</v>
+      </c>
+      <c r="I4">
+        <v>0.7912365362816405</v>
+      </c>
+      <c r="J4">
+        <v>0.02267233053982253</v>
+      </c>
+      <c r="K4">
+        <v>0.7842248902929911</v>
+      </c>
+      <c r="L4">
+        <v>0.02779921101222466</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7281698225738</v>
+        <v>0.7432808350473631</v>
       </c>
       <c r="D5">
-        <v>0.7195226286336684</v>
+        <v>0.02970604243598193</v>
       </c>
       <c r="E5">
-        <v>0.7137245262021273</v>
+        <v>0.7384687980288768</v>
       </c>
       <c r="F5">
-        <v>0.7008509822633916</v>
+        <v>0.01461229853266952</v>
       </c>
       <c r="G5">
-        <v>0.6645409797879125</v>
+        <v>0.7331453521949756</v>
+      </c>
+      <c r="H5">
+        <v>0.01595459853282057</v>
+      </c>
+      <c r="I5">
+        <v>0.7288539426334661</v>
+      </c>
+      <c r="J5">
+        <v>0.02764157540942656</v>
+      </c>
+      <c r="K5">
+        <v>0.6894208662034085</v>
+      </c>
+      <c r="L5">
+        <v>0.03890525283413538</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.6462950821055146</v>
+        <v>0.7462392054109436</v>
       </c>
       <c r="D6">
-        <v>0.639911332605878</v>
+        <v>0.01207996503351616</v>
       </c>
       <c r="E6">
-        <v>0.6311366841037841</v>
+        <v>0.72807629247923</v>
       </c>
       <c r="F6">
-        <v>0.6235646678359104</v>
+        <v>0.02251736131922065</v>
       </c>
       <c r="G6">
-        <v>0.61477321145023</v>
+        <v>0.7081733605484182</v>
+      </c>
+      <c r="H6">
+        <v>0.01599183527429442</v>
+      </c>
+      <c r="I6">
+        <v>0.6880605615572802</v>
+      </c>
+      <c r="J6">
+        <v>0.02223130337846224</v>
+      </c>
+      <c r="K6">
+        <v>0.6733541204691896</v>
+      </c>
+      <c r="L6">
+        <v>0.0187066950232615</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.6637246756560157</v>
+        <v>0.8202843327676501</v>
       </c>
       <c r="D7">
-        <v>0.6553353479821079</v>
+        <v>0.01368170429773109</v>
       </c>
       <c r="E7">
-        <v>0.6578508192967222</v>
+        <v>0.8053424953033834</v>
       </c>
       <c r="F7">
-        <v>0.6179298955333258</v>
+        <v>0.01480939687693497</v>
       </c>
       <c r="G7">
-        <v>0.6136209315261725</v>
+        <v>0.7894694519649125</v>
+      </c>
+      <c r="H7">
+        <v>0.02412119819524255</v>
+      </c>
+      <c r="I7">
+        <v>0.7681696313779012</v>
+      </c>
+      <c r="J7">
+        <v>0.03052010661789345</v>
+      </c>
+      <c r="K7">
+        <v>0.7567199282853556</v>
+      </c>
+      <c r="L7">
+        <v>0.01994249456970832</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.6458533676218773</v>
+        <v>0.8287908072786436</v>
       </c>
       <c r="D8">
-        <v>0.6555982001327074</v>
+        <v>0.01381495469101302</v>
       </c>
       <c r="E8">
-        <v>0.65660358962156</v>
+        <v>0.8085283823907401</v>
       </c>
       <c r="F8">
-        <v>0.5960028389469046</v>
+        <v>0.01664299585044512</v>
       </c>
       <c r="G8">
-        <v>0.6326412395934391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8132109038552491</v>
-      </c>
-      <c r="D9">
-        <v>0.8034096800384509</v>
-      </c>
-      <c r="E9">
-        <v>0.7908475267423899</v>
-      </c>
-      <c r="F9">
-        <v>0.7923237540906419</v>
-      </c>
-      <c r="G9">
-        <v>0.7655203829249926</v>
+        <v>0.8003995933194117</v>
+      </c>
+      <c r="H8">
+        <v>0.01762246748112882</v>
+      </c>
+      <c r="I8">
+        <v>0.7961138604671039</v>
+      </c>
+      <c r="J8">
+        <v>0.02876764975063725</v>
+      </c>
+      <c r="K8">
+        <v>0.7707720721685174</v>
+      </c>
+      <c r="L8">
+        <v>0.02301496505064199</v>
       </c>
     </row>
   </sheetData>
